--- a/Shared_Reward/Behavioral_Analysis/ugdg_tsr_means.xlsx
+++ b/Shared_Reward/Behavioral_Analysis/ugdg_tsr_means.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Github\istart\Shared_Reward\Behavioral_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C248800E-2F71-4D88-AE7C-24DAFB533D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE8DFF5-21E4-441C-A834-AA17251405AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B28FC07-DFBB-4091-9766-FE81E9389E88}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>sub-1002</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>fd_mean</t>
+  </si>
+  <si>
+    <t>sub-3220</t>
+  </si>
+  <si>
+    <t>sub-3167</t>
   </si>
 </sst>
 </file>
@@ -229,12 +235,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -249,8 +261,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A67F396-F6BC-4198-87E3-5CFFFEFC96A3}">
-  <dimension ref="C2:E59"/>
+  <dimension ref="C2:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +927,7 @@
         <v>4.6803600852661498E-2</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>30</v>
       </c>
@@ -925,7 +938,7 @@
         <v>0.38355382999704302</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>31</v>
       </c>
@@ -936,7 +949,7 @@
         <v>-0.71235980719880898</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>32</v>
       </c>
@@ -947,7 +960,7 @@
         <v>-0.54063370793085697</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>33</v>
       </c>
@@ -958,7 +971,7 @@
         <v>-2.61168886070502E-2</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>34</v>
       </c>
@@ -969,7 +982,7 @@
         <v>-0.42186142419078598</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>35</v>
       </c>
@@ -980,7 +993,7 @@
         <v>0.69448959358407403</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>36</v>
       </c>
@@ -991,7 +1004,7 @@
         <v>-1.1297470298158601</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>37</v>
       </c>
@@ -1002,7 +1015,7 @@
         <v>1.8379274674823101</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>38</v>
       </c>
@@ -1013,7 +1026,7 @@
         <v>0.81880988700980795</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>39</v>
       </c>
@@ -1024,7 +1037,7 @@
         <v>-1.0103198911128199</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>40</v>
       </c>
@@ -1035,7 +1048,7 @@
         <v>1.9339457374442901</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>41</v>
       </c>
@@ -1046,7 +1059,7 @@
         <v>1.6397736642829699</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>42</v>
       </c>
@@ -1057,157 +1070,181 @@
         <v>-0.32200686717006999</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>43</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <v>1.1322327636471501</v>
       </c>
-      <c r="E46">
+      <c r="E47">
         <v>-1.1851091574091599</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>44</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <v>0.17223957687542499</v>
       </c>
-      <c r="E47">
+      <c r="E48">
         <v>-0.97344042321461199</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>45</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>-0.77900836602775003</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>0.48868822144546897</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
         <v>46</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <v>-0.16713705561400899</v>
       </c>
-      <c r="E49">
+      <c r="E50">
         <v>0.78384417369414705</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
         <v>47</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>-1.70112973303435</v>
       </c>
-      <c r="E50">
+      <c r="E51">
         <v>1.4891734357333799</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
         <v>48</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>0.59838850366243901</v>
       </c>
-      <c r="E51">
+      <c r="E52">
         <v>-0.77733206453701498</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>49</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>0.50910159921857601</v>
       </c>
-      <c r="E52">
+      <c r="E53">
         <v>-0.38320067663494101</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>50</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>-1.0983897334138</v>
       </c>
-      <c r="E53">
+      <c r="E54">
         <v>0.77697977201923096</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>51</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <v>0.74884139665342897</v>
       </c>
-      <c r="E54">
+      <c r="E55">
         <v>-0.32805607899806399</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
         <v>52</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>-1.3874631652890601</v>
       </c>
-      <c r="E55">
+      <c r="E56">
         <v>1.40363354275889</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>53</v>
       </c>
-      <c r="D56">
+      <c r="D57">
         <v>-1.8417829443328</v>
       </c>
-      <c r="E56">
+      <c r="E57">
         <v>1.1939587032671599</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
         <v>54</v>
       </c>
-      <c r="D57">
+      <c r="D58">
         <v>0.46293606825790601</v>
       </c>
-      <c r="E57">
+      <c r="E58">
         <v>-1.2106883731791001</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
         <v>55</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <v>-0.53398214278482903</v>
       </c>
-      <c r="E58">
+      <c r="E59">
         <v>-0.54776771021385995</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>56</v>
       </c>
-      <c r="D59">
+      <c r="D61">
         <v>-2.19355938919621</v>
       </c>
-      <c r="E59">
+      <c r="E61">
         <v>1.6670807909413701</v>
       </c>
     </row>
